--- a/neutralization_assays/data/neut_plate_reader_data/mAb_5A01_NeutralizationAssay.xlsx
+++ b/neutralization_assays/data/neut_plate_reader_data/mAb_5A01_NeutralizationAssay.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juhyemlee/Google Drive/Bloom_Lab/Perth2009_MAP/NeutralizationAssays/mutvalidation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="80" windowWidth="28020" windowHeight="14160"/>
+    <workbookView xWindow="30780" yWindow="460" windowWidth="28280" windowHeight="18900"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
@@ -14,6 +19,9 @@
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -35,7 +43,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -97,7 +104,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -126,7 +132,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -188,7 +193,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -217,7 +221,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -279,7 +282,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -308,7 +310,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -370,7 +371,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -493,12 +493,6 @@
     <t>ms</t>
   </si>
   <si>
-    <t>Part of Plate</t>
-  </si>
-  <si>
-    <t>B1-G12</t>
-  </si>
-  <si>
     <t>Start Time:</t>
   </si>
   <si>
@@ -572,6 +566,12 @@
   </si>
   <si>
     <t>4/27/2019 10:15:48 AM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -1038,13 +1037,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1060,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1068,7 +1067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1076,15 +1075,15 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1092,7 +1091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1100,7 +1099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1108,17 +1107,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1126,12 +1125,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1142,7 +1141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1153,7 +1152,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1164,7 +1163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1175,7 +1174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1186,7 +1185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1197,7 +1196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1208,7 +1207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1219,7 +1218,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1230,7 +1229,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1241,71 +1240,68 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="B33">
         <v>8153</v>
@@ -1344,9 +1340,9 @@
         <v>8046</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>27282</v>
@@ -1385,9 +1381,9 @@
         <v>28722</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>26345</v>
@@ -1426,9 +1422,9 @@
         <v>7278</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>24117</v>
@@ -1467,9 +1463,9 @@
         <v>7276</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>24012</v>
@@ -1508,9 +1504,9 @@
         <v>7229</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>23754</v>
@@ -1549,23 +1545,23 @@
         <v>26265</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1574,12 +1570,12 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1587,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1595,7 +1591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1603,7 +1599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1611,15 +1607,15 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1627,7 +1623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1635,7 +1631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1643,17 +1639,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1661,12 +1657,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1677,7 +1673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1688,7 +1684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1699,7 +1695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1710,7 +1706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1721,7 +1717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1732,7 +1728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1743,7 +1739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1754,7 +1750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1765,7 +1761,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1776,71 +1772,68 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="B33">
         <v>7040</v>
@@ -1879,9 +1872,9 @@
         <v>6814</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>30876</v>
@@ -1920,9 +1913,9 @@
         <v>27951</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>28270</v>
@@ -1961,9 +1954,9 @@
         <v>21471</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>24443</v>
@@ -2002,9 +1995,9 @@
         <v>19336</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>23639</v>
@@ -2043,9 +2036,9 @@
         <v>22202</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>25765</v>
@@ -2084,23 +2077,23 @@
         <v>25283</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2109,12 +2102,12 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2122,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2130,7 +2123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2138,7 +2131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2146,15 +2139,15 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2162,7 +2155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2170,7 +2163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2178,17 +2171,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2196,12 +2189,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2212,7 +2205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2223,7 +2216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2234,7 +2227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2245,7 +2238,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2256,7 +2249,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2267,7 +2260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2278,7 +2271,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2289,7 +2282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2300,7 +2293,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2311,71 +2304,68 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="B33">
         <v>7393</v>
@@ -2414,9 +2404,9 @@
         <v>7306</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>30399</v>
@@ -2455,9 +2445,9 @@
         <v>31140</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>27122</v>
@@ -2496,9 +2486,9 @@
         <v>6618</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>26470</v>
@@ -2537,9 +2527,9 @@
         <v>6560</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>24070</v>
@@ -2578,9 +2568,9 @@
         <v>6525</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>25190</v>
@@ -2619,23 +2609,23 @@
         <v>28909</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2643,13 +2633,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2657,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2665,7 +2655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2673,7 +2663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2681,15 +2671,15 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2697,7 +2687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2705,7 +2695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2713,17 +2703,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2731,12 +2721,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2747,7 +2737,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2758,7 +2748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2769,7 +2759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2780,7 +2770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2791,7 +2781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2802,7 +2792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2813,7 +2803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2824,7 +2814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -2835,7 +2825,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -2846,71 +2836,68 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="B33">
         <v>9035</v>
@@ -2949,9 +2936,9 @@
         <v>8647</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>31440</v>
@@ -2990,9 +2977,9 @@
         <v>29707</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>29885</v>
@@ -3031,9 +3018,9 @@
         <v>12838</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>30333</v>
@@ -3072,9 +3059,9 @@
         <v>13811</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>32887</v>
@@ -3113,9 +3100,9 @@
         <v>14103</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>30315</v>
@@ -3154,21 +3141,21 @@
         <v>27854</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>